--- a/final_experiments_data_with__SUBSEQ_tree_expansion_performance.xlsx
+++ b/final_experiments_data_with__SUBSEQ_tree_expansion_performance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A945680-87BF-3743-8021-5A3C13FC39F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy %" sheetId="1" r:id="rId1"/>
@@ -30,28 +31,28 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Performance Charts'!$Z$69:$AK$97</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Scalability Charts'!$L$92:$V$119</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rafael Ktistakis</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="87">
   <si>
     <t>DG</t>
   </si>
@@ -343,11 +344,20 @@
   <si>
     <t>subSeq (treeExpansion)</t>
   </si>
+  <si>
+    <t>CPT/SUBSEQ</t>
+  </si>
+  <si>
+    <t>These experiments still reflect the old SUBSEQ (as was published); We need to repeat with the Tree_Expansion Version</t>
+  </si>
+  <si>
+    <t>Remove comment below when numbers are updated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -446,7 +456,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -476,6 +486,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -503,9 +516,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -645,7 +658,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -672,22 +685,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>475.0</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>912.0</c:v>
+                  <c:v>912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1307.0</c:v>
+                  <c:v>1307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1695.0</c:v>
+                  <c:v>1695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2005.0</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2313.0</c:v>
+                  <c:v>2313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,25 +715,25 @@
                   <c:v>3872.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4729.805</c:v>
+                  <c:v>4729.8050000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4243.979</c:v>
+                  <c:v>4243.9790000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3765.912</c:v>
+                  <c:v>3765.9119999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3226.802</c:v>
+                  <c:v>3226.8020000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2920.947</c:v>
+                  <c:v>2920.9470000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F33-FE4F-A11D-DF3D0448B2AF}"/>
             </c:ext>
@@ -794,7 +807,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -821,22 +834,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>475.0</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>912.0</c:v>
+                  <c:v>912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1307.0</c:v>
+                  <c:v>1307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1695.0</c:v>
+                  <c:v>1695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2005.0</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2313.0</c:v>
+                  <c:v>2313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,28 +861,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.38607</c:v>
+                  <c:v>4.3860700000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.63043</c:v>
+                  <c:v>4.6304299999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.58214</c:v>
+                  <c:v>4.5821399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.72741</c:v>
+                  <c:v>4.7274099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.51452</c:v>
+                  <c:v>4.5145200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.57865</c:v>
+                  <c:v>4.5786499999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3F33-FE4F-A11D-DF3D0448B2AF}"/>
             </c:ext>
@@ -1002,7 +1015,7 @@
       <c:valAx>
         <c:axId val="1129797728"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1152,14 +1165,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1199,9 +1212,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1308,8 +1321,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0341143625914722"/>
-                  <c:y val="-0.0615816705902161"/>
+                  <c:x val="-3.41143625914722E-2"/>
+                  <c:y val="-6.1581670590216103E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1319,19 +1332,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-DB25-C14A-A4C4-CEBA036F78F0}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0218511922814712"/>
-                  <c:y val="0.0236083753218524"/>
+                  <c:x val="2.1851192281471199E-2"/>
+                  <c:y val="2.36083753218524E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1341,19 +1354,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-DB25-C14A-A4C4-CEBA036F78F0}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0999561918537585"/>
-                  <c:y val="-0.0424139102600007"/>
+                  <c:x val="-9.9956191853758494E-2"/>
+                  <c:y val="-4.2413910260000701E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1363,11 +1376,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-DB25-C14A-A4C4-CEBA036F78F0}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1405,7 +1418,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1432,13 +1445,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,7 +1463,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.332</c:v>
+                  <c:v>0.33200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.156</c:v>
@@ -1462,7 +1475,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F00D-1C4F-96EC-3DFABE0C1CE0}"/>
             </c:ext>
@@ -1503,8 +1516,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0818496888066298"/>
-                  <c:y val="0.000181112696033531"/>
+                  <c:x val="-8.1849688806629795E-2"/>
+                  <c:y val="1.8111269603353101E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1514,19 +1527,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-DB25-C14A-A4C4-CEBA036F78F0}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0703273686857297"/>
-                  <c:y val="-0.0488031637034059"/>
+                  <c:x val="-7.0327368685729696E-2"/>
+                  <c:y val="-4.88031637034059E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1536,19 +1549,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-DB25-C14A-A4C4-CEBA036F78F0}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0333735124023714"/>
-                  <c:y val="0.000181112696033531"/>
+                  <c:x val="3.3373512402371401E-2"/>
+                  <c:y val="1.8111269603353101E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1558,11 +1571,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DB25-C14A-A4C4-CEBA036F78F0}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -1601,7 +1614,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1628,13 +1641,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,19 +1659,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.056392</c:v>
+                  <c:v>5.6391999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39712</c:v>
+                  <c:v>0.39711999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.08475</c:v>
+                  <c:v>1.0847500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F00D-1C4F-96EC-3DFABE0C1CE0}"/>
             </c:ext>
@@ -1935,14 +1948,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1982,9 +1995,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2123,22 +2136,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>36.115</c:v>
+                  <c:v>36.115000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.055</c:v>
+                  <c:v>2.0550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>55.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.696</c:v>
+                  <c:v>5.6959999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>24.7</c:v>
@@ -2146,7 +2159,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FA6B-534A-B65F-41B7C1180498}"/>
             </c:ext>
@@ -2215,19 +2228,19 @@
                   <c:v>6.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6.98</c:v>
@@ -2235,7 +2248,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-76BE-EF45-BDA8-D198C499CEB8}"/>
             </c:ext>
@@ -2301,30 +2314,30 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-76BE-EF45-BDA8-D198C499CEB8}"/>
             </c:ext>
@@ -2390,30 +2403,30 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-76BE-EF45-BDA8-D198C499CEB8}"/>
             </c:ext>
@@ -2479,10 +2492,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>59.12</c:v>
@@ -2491,18 +2504,18 @@
                   <c:v>24.488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.66</c:v>
+                  <c:v>33.659999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-76BE-EF45-BDA8-D198C499CEB8}"/>
             </c:ext>
@@ -2568,30 +2581,30 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-76BE-EF45-BDA8-D198C499CEB8}"/>
             </c:ext>
@@ -2659,10 +2672,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.11</c:v>
+                  <c:v>4.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>38.06</c:v>
@@ -2674,7 +2687,7 @@
                   <c:v>16.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>23.04</c:v>
@@ -2682,7 +2695,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-76BE-EF45-BDA8-D198C499CEB8}"/>
             </c:ext>
@@ -2750,22 +2763,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30.976</c:v>
+                  <c:v>30.975999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.6</c:v>
+                  <c:v>80.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25.8</c:v>
@@ -2773,7 +2786,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-76BE-EF45-BDA8-D198C499CEB8}"/>
             </c:ext>
@@ -2844,27 +2857,27 @@
                   <c:v>32.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.479</c:v>
+                  <c:v>5.4790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-76BE-EF45-BDA8-D198C499CEB8}"/>
             </c:ext>
@@ -2941,7 +2954,7 @@
                   <c:v>29.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.18</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.24</c:v>
@@ -2955,7 +2968,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-76BE-EF45-BDA8-D198C499CEB8}"/>
             </c:ext>
@@ -3217,9 +3230,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3352,30 +3365,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.285302593659942</c:v>
+                  <c:v>3.2853025936599418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.615384615384616</c:v>
+                  <c:v>9.6153846153846168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.784313725490196</c:v>
+                  <c:v>0.78431372549019618</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.676136363636364</c:v>
+                  <c:v>6.6761363636363642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.784313725490196</c:v>
+                  <c:v>0.78431372549019618</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.778469197261978</c:v>
+                  <c:v>7.7784691972619786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.605633802816901</c:v>
+                  <c:v>1.6056338028169013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40A9-D440-9CA2-5C70004886A4}"/>
             </c:ext>
@@ -3441,30 +3454,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.44956772334294</c:v>
+                  <c:v>2.4495677233429394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.346153846153846</c:v>
+                  <c:v>1.3461538461538463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.400560224089636</c:v>
+                  <c:v>1.4005602240896358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.193181818181818</c:v>
+                  <c:v>1.1931818181818181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.400560224089636</c:v>
+                  <c:v>1.4005602240896358</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.316116988176727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.605633802816901</c:v>
+                  <c:v>1.6056338028169013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-40A9-D440-9CA2-5C70004886A4}"/>
             </c:ext>
@@ -3530,19 +3543,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>393.3717579250721</c:v>
+                  <c:v>393.37175792507207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>623.4615384615386</c:v>
+                  <c:v>623.46153846153857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.2156862745098</c:v>
+                  <c:v>139.21568627450981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197.2159090909091</c:v>
+                  <c:v>197.21590909090912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.97759103641456</c:v>
+                  <c:v>43.977591036414559</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1863.72121966397</c:v>
@@ -3553,7 +3566,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-40A9-D440-9CA2-5C70004886A4}"/>
             </c:ext>
@@ -3619,7 +3632,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>278.3861671469741</c:v>
+                  <c:v>278.38616714697406</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>792.5</c:v>
@@ -3628,13 +3641,13 @@
                   <c:v>67.61904761904762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.08522727272727</c:v>
+                  <c:v>20.085227272727273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.58823529411765</c:v>
+                  <c:v>20.588235294117649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1834.785314250156</c:v>
+                  <c:v>1834.7853142501556</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42.25352112676056</c:v>
@@ -3642,7 +3655,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-40A9-D440-9CA2-5C70004886A4}"/>
             </c:ext>
@@ -3711,27 +3724,27 @@
                   <c:v>233.4293948126801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2250.0</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.8235294117647</c:v>
+                  <c:v>58.823529411764703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>267.0454545454545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.81792717086834</c:v>
+                  <c:v>44.817927170868344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10295.27069072806</c:v>
+                  <c:v>10295.270690728064</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>498.5915492957747</c:v>
+                  <c:v>498.59154929577466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-40A9-D440-9CA2-5C70004886A4}"/>
             </c:ext>
@@ -3797,30 +3810,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.00864553314121</c:v>
+                  <c:v>1.0086455331412103</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.039772727272728</c:v>
+                  <c:v>3.0397727272727275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.392156862745098</c:v>
+                  <c:v>0.39215686274509809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.442439327940262</c:v>
+                  <c:v>7.4424393279402619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.19718309859155</c:v>
+                  <c:v>2.1971830985915495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-40A9-D440-9CA2-5C70004886A4}"/>
             </c:ext>
@@ -3888,30 +3901,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.487031700288184</c:v>
+                  <c:v>3.4870317002881843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.076923076923077</c:v>
+                  <c:v>8.0769230769230766</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.792717086834734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.613636363636364</c:v>
+                  <c:v>2.6136363636363638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.588235294117647</c:v>
+                  <c:v>0.58823529411764697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.086496577473553</c:v>
+                  <c:v>3.0864965774735533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.816901408450704</c:v>
+                  <c:v>2.8169014084507045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-40A9-D440-9CA2-5C70004886A4}"/>
             </c:ext>
@@ -3979,30 +3992,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.04899135446686</c:v>
+                  <c:v>9.0489913544668603</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>41.15384615384616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.599439775910363</c:v>
+                  <c:v>8.5994397759103638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.90909090909091</c:v>
+                  <c:v>50.909090909090914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.59663865546218</c:v>
+                  <c:v>11.596638655462185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135.0342252644679</c:v>
+                  <c:v>135.03422526446795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.30985915492958</c:v>
+                  <c:v>20.309859154929576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-40A9-D440-9CA2-5C70004886A4}"/>
             </c:ext>
@@ -4070,30 +4083,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.06888472622478E6</c:v>
+                  <c:v>1068884.7262247838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6730.76923076923</c:v>
+                  <c:v>6730.7692307692305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>308.12324929972</c:v>
+                  <c:v>308.12324929971993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75000.0</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2156.862745098039</c:v>
+                  <c:v>2156.8627450980389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>619985.3764779091</c:v>
+                  <c:v>619985.37647790916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51107.04225352113</c:v>
+                  <c:v>51107.042253521133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-40A9-D440-9CA2-5C70004886A4}"/>
             </c:ext>
@@ -4156,7 +4169,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1161448464"/>
-        <c:crossesAt val="0.001"/>
+        <c:crossesAt val="1E-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4165,7 +4178,7 @@
       <c:valAx>
         <c:axId val="1161448464"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4323,14 +4336,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4370,9 +4383,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4521,30 +4534,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.869156631639171</c:v>
+                  <c:v>4.8691566316391715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.961176856287742</c:v>
+                  <c:v>2.9611768562877416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0637577206614863</c:v>
+                  <c:v>6.3757720661486356E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.073970180398547</c:v>
+                  <c:v>6.0739701803985477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.676902249161564</c:v>
+                  <c:v>0.67690224916156427</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.758403856361527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.979058653357812</c:v>
+                  <c:v>2.9790586533578116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ABB-0142-A6F7-74977A476B4B}"/>
             </c:ext>
@@ -4613,27 +4626,27 @@
                   <c:v>136.3363856858968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124.5104363858131</c:v>
+                  <c:v>124.51043638581314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176.2900976290098</c:v>
+                  <c:v>176.29009762900978</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>77.72069370617497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2689.148026214579</c:v>
+                  <c:v>2689.1480262145787</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126.91956736037</c:v>
+                  <c:v>126.91956736037001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.73566597215118</c:v>
+                  <c:v>90.735665972151182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ABB-0142-A6F7-74977A476B4B}"/>
             </c:ext>
@@ -4699,30 +4712,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.007939768532466</c:v>
+                  <c:v>9.0079397685324665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.535832002566353</c:v>
+                  <c:v>0.53583200256635322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.187886033074318</c:v>
+                  <c:v>3.1878860330743177</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.10295624373928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.384511245807822</c:v>
+                  <c:v>3.3845112458078219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.49169372827246</c:v>
+                  <c:v>81.491693728272466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.881349118754968</c:v>
+                  <c:v>4.8813491187549687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ABB-0142-A6F7-74977A476B4B}"/>
             </c:ext>
@@ -4788,16 +4801,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.58130122124535</c:v>
+                  <c:v>15.581301221245349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.85764847305505</c:v>
+                  <c:v>10.857648473055054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.41940625622634</c:v>
+                  <c:v>5.4194062562263401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.73574392664212</c:v>
+                  <c:v>12.735743926642115</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.46133965108766</c:v>
@@ -4806,12 +4819,12 @@
                   <c:v>86.42614280894125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.640070492424038</c:v>
+                  <c:v>6.6400704924240381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7ABB-0142-A6F7-74977A476B4B}"/>
             </c:ext>
@@ -4877,30 +4890,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.1370217194818</c:v>
+                  <c:v>2.1370217194818002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.734685604097705</c:v>
+                  <c:v>1.7346856040977048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.140104403267583</c:v>
+                  <c:v>2.1401044032675829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.900048901991103</c:v>
+                  <c:v>1.9000489019911029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.182542075628443</c:v>
+                  <c:v>2.1825420756284428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.669195470037319</c:v>
+                  <c:v>1.6691954700373188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.600641035994566</c:v>
+                  <c:v>1.6006410359945658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7ABB-0142-A6F7-74977A476B4B}"/>
             </c:ext>
@@ -4966,30 +4979,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.631167471599122</c:v>
+                  <c:v>1.6311674715991225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.692101060735852</c:v>
+                  <c:v>1.6921010607358524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0637577206614863</c:v>
+                  <c:v>6.3757720661486356E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.698099190218949</c:v>
+                  <c:v>1.6980991902189488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.246146272422387</c:v>
+                  <c:v>0.24614627242238704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.1709036464337</c:v>
+                  <c:v>21.170903646433697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.148552733824699</c:v>
+                  <c:v>1.1485527338246986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7ABB-0142-A6F7-74977A476B4B}"/>
             </c:ext>
@@ -5060,27 +5073,27 @@
                   <c:v>26.04998797926957</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.07227386655669</c:v>
+                  <c:v>38.072273866556685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.70790994221957</c:v>
+                  <c:v>13.707909942219565</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.83437083384018</c:v>
+                  <c:v>20.834370833840179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.69071720870127</c:v>
+                  <c:v>51.69071720870128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.61638373484258</c:v>
+                  <c:v>30.616383734842579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.40176195167823</c:v>
+                  <c:v>23.401761951678232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-7ABB-0142-A6F7-74977A476B4B}"/>
             </c:ext>
@@ -5148,30 +5161,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.599530126385048</c:v>
+                  <c:v>5.5995301263850479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.076303182207556</c:v>
+                  <c:v>5.0763031822075568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.144251842996613</c:v>
+                  <c:v>4.1442518429966126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.396198380437898</c:v>
+                  <c:v>3.3961983804378977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.76791483338974</c:v>
+                  <c:v>42.767914833389746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.86116518343112</c:v>
+                  <c:v>4.8611651834311216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.589227293202183</c:v>
+                  <c:v>3.5892272932021827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-7ABB-0142-A6F7-74977A476B4B}"/>
             </c:ext>
@@ -5244,7 +5257,7 @@
       <c:valAx>
         <c:axId val="1128016096"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5379,9 +5392,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5519,19 +5532,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>393.3717579250721</c:v>
+                  <c:v>393.37175792507207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>623.4615384615386</c:v>
+                  <c:v>623.46153846153857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.2156862745098</c:v>
+                  <c:v>139.21568627450981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197.2159090909091</c:v>
+                  <c:v>197.21590909090912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.97759103641456</c:v>
+                  <c:v>43.977591036414559</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1863.72121966397</c:v>
@@ -5542,7 +5555,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E4C0-294D-8DA0-5307549FF986}"/>
             </c:ext>
@@ -5616,27 +5629,27 @@
                   <c:v>233.4293948126801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2250.0</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.8235294117647</c:v>
+                  <c:v>58.823529411764703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>267.0454545454545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.81792717086834</c:v>
+                  <c:v>44.817927170868344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10295.27069072806</c:v>
+                  <c:v>10295.270690728064</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>498.5915492957747</c:v>
+                  <c:v>498.59154929577466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4C0-294D-8DA0-5307549FF986}"/>
             </c:ext>
@@ -5764,7 +5777,7 @@
       <c:valAx>
         <c:axId val="1160790768"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5962,9 +5975,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6090,27 +6103,27 @@
                   <c:v>233.4293948126801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2250.0</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.8235294117647</c:v>
+                  <c:v>58.823529411764703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>267.0454545454545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.81792717086834</c:v>
+                  <c:v>44.817927170868344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10295.27069072806</c:v>
+                  <c:v>10295.270690728064</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>498.5915492957747</c:v>
+                  <c:v>498.59154929577466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B6DE-1544-A895-67CC6DEB1E09}"/>
             </c:ext>
@@ -6183,30 +6196,30 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.06888472622478E6</c:v>
+                  <c:v>1068884.7262247838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6730.76923076923</c:v>
+                  <c:v>6730.7692307692305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>308.12324929972</c:v>
+                  <c:v>308.12324929971993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75000.0</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2156.862745098039</c:v>
+                  <c:v>2156.8627450980389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>619985.3764779091</c:v>
+                  <c:v>619985.37647790916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51107.04225352113</c:v>
+                  <c:v>51107.042253521133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B6DE-1544-A895-67CC6DEB1E09}"/>
             </c:ext>
@@ -6314,7 +6327,7 @@
       <c:valAx>
         <c:axId val="1127587296"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6470,9 +6483,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6576,8 +6589,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0399930672223871"/>
-                  <c:y val="-0.03088729804161"/>
+                  <c:x val="-3.9993067222387102E-2"/>
+                  <c:y val="-3.0887298041610001E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -6587,19 +6600,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-9185-E448-901F-5A4AB31F1A97}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.039993067222387"/>
-                  <c:y val="-0.029293028043141"/>
+                  <c:x val="3.9993067222386998E-2"/>
+                  <c:y val="-2.9293028043141E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -6609,11 +6622,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-9185-E448-901F-5A4AB31F1A97}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6653,7 +6666,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6709,30 +6722,30 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9185-E448-901F-5A4AB31F1A97}"/>
             </c:ext>
@@ -6767,8 +6780,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="-0.0972222222222222"/>
+                  <c:x val="0"/>
+                  <c:y val="-9.7222222222222196E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -6778,19 +6791,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-9185-E448-901F-5A4AB31F1A97}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00277777777777783"/>
-                  <c:y val="-0.111111111111111"/>
+                  <c:x val="-2.7777777777778299E-3"/>
+                  <c:y val="-0.11111111111111099"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -6800,18 +6813,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-9185-E448-901F-5A4AB31F1A97}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.092533763208E-17"/>
+                  <c:x val="5.0925337632080002E-17"/>
                   <c:y val="-0.115740740740741"/>
                 </c:manualLayout>
               </c:layout>
@@ -6822,18 +6835,18 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-9185-E448-901F-5A4AB31F1A97}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0"/>
+                  <c:x val="0"/>
                   <c:y val="-0.171296296296296"/>
                 </c:manualLayout>
               </c:layout>
@@ -6844,11 +6857,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-9185-E448-901F-5A4AB31F1A97}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6856,7 +6869,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="1.00527697742523E-5"/>
-                  <c:y val="-0.407073777643328"/>
+                  <c:y val="-0.40707377764332803"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -6866,11 +6879,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-9185-E448-901F-5A4AB31F1A97}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6878,7 +6891,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.0185067526416E-16"/>
-                  <c:y val="-0.087962962962963"/>
+                  <c:y val="-8.7962962962963007E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -6888,11 +6901,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-9185-E448-901F-5A4AB31F1A97}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6910,11 +6923,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-9185-E448-901F-5A4AB31F1A97}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6954,7 +6967,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7010,30 +7023,30 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>79.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-9185-E448-901F-5A4AB31F1A97}"/>
             </c:ext>
@@ -7319,9 +7332,9 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7386,8 +7399,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0462962962962963"/>
-                  <c:y val="0.043125"/>
+                  <c:x val="4.6296296296296301E-2"/>
+                  <c:y val="4.3124999999999997E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -7397,19 +7410,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-010B-744E-AD9F-6A57036B2926}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0385802469135802"/>
-                  <c:y val="-0.0305278506853311"/>
+                  <c:x val="3.8580246913580203E-2"/>
+                  <c:y val="-3.05278506853311E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -7419,19 +7432,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-010B-744E-AD9F-6A57036B2926}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0462962962962963"/>
-                  <c:y val="0.0261548556430446"/>
+                  <c:x val="4.6296296296296301E-2"/>
+                  <c:y val="2.6154855643044601E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -7441,19 +7454,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-010B-744E-AD9F-6A57036B2926}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00154320987654321"/>
-                  <c:y val="0.0944794400699912"/>
+                  <c:x val="1.54320987654321E-3"/>
+                  <c:y val="9.4479440069991205E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -7463,19 +7476,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-010B-744E-AD9F-6A57036B2926}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0385802469135802"/>
-                  <c:y val="0.0287988480606592"/>
+                  <c:x val="3.8580246913580203E-2"/>
+                  <c:y val="2.8798848060659198E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -7485,19 +7498,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-010B-744E-AD9F-6A57036B2926}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0354938271604938"/>
-                  <c:y val="0.0477546296296296"/>
+                  <c:x val="3.5493827160493797E-2"/>
+                  <c:y val="4.7754629629629598E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -7507,19 +7520,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-010B-744E-AD9F-6A57036B2926}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0385802469135804"/>
-                  <c:y val="0.0511749052201807"/>
+                  <c:x val="3.8580246913580397E-2"/>
+                  <c:y val="5.11749052201807E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -7529,11 +7542,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-010B-744E-AD9F-6A57036B2926}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -7552,7 +7565,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
               </c:ext>
@@ -7569,25 +7582,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>2.564322049493418</c:v>
+                    <c:v>2.5643220494934185</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>29.00498652111327</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>29.26960667436387</c:v>
+                    <c:v>29.269606674363867</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.24606411480688</c:v>
+                    <c:v>0.24606411480688034</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.624250671049407</c:v>
+                    <c:v>7.6242506710494071</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>12.51723073654236</c:v>
+                    <c:v>12.517230736542361</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>14.50691278106333</c:v>
+                    <c:v>14.506912781063331</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7599,25 +7612,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>2.564322049493418</c:v>
+                    <c:v>2.5643220494934185</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>29.00498652111327</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>29.26960667436387</c:v>
+                    <c:v>29.269606674363867</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.24606411480688</c:v>
+                    <c:v>0.24606411480688034</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.624250671049407</c:v>
+                    <c:v>7.6242506710494071</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>12.51723073654236</c:v>
+                    <c:v>12.517230736542361</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>14.50691278106333</c:v>
+                    <c:v>14.506912781063331</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7666,10 +7679,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.483203735409692</c:v>
+                  <c:v>3.4832037354096923</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.22745259153538</c:v>
+                  <c:v>16.227452591535382</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20.58880754708883</c:v>
@@ -7678,18 +7691,18 @@
                   <c:v>1.909177030071217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.950104013699456</c:v>
+                  <c:v>3.9501040136994559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.1962007881583</c:v>
+                  <c:v>29.196200788158297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.919227263150024</c:v>
+                  <c:v>9.9192272631500238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-010B-744E-AD9F-6A57036B2926}"/>
             </c:ext>
@@ -7913,9 +7926,9 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7980,8 +7993,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.202160615339749"/>
-                  <c:y val="0.0593287037037037"/>
+                  <c:x val="0.20216061533974899"/>
+                  <c:y val="5.9328703703703703E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -7991,11 +8004,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0060-F843-B80E-F5FBA7A91C35}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -8014,7 +8027,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
               </c:ext>
@@ -8031,7 +8044,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>970.7840661209567</c:v>
+                    <c:v>970.78406612095671</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -8043,7 +8056,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>970.7840661209567</c:v>
+                    <c:v>970.78406612095671</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -8074,12 +8087,12 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>488.8086961362849</c:v>
+                  <c:v>488.80869613628494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0060-F843-B80E-F5FBA7A91C35}"/>
             </c:ext>
@@ -8303,9 +8316,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8412,8 +8425,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00411623202065506"/>
-                  <c:y val="-0.0257379587727133"/>
+                  <c:x val="4.1162320206550602E-3"/>
+                  <c:y val="-2.5737958772713301E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8423,19 +8436,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0107022032537032"/>
-                  <c:y val="-0.0406462168073253"/>
+                  <c:x val="1.0702203253703199E-2"/>
+                  <c:y val="-4.0646216807325303E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8445,19 +8458,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00576272482891708"/>
-                  <c:y val="0.0658413405827602"/>
+                  <c:x val="-5.7627248289170803E-3"/>
+                  <c:y val="6.5841340582760199E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8467,19 +8480,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0139951888702272"/>
-                  <c:y val="0.0445438291047432"/>
+                  <c:x val="-1.39951888702272E-2"/>
+                  <c:y val="4.45438291047432E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8489,19 +8502,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0074092176371791"/>
-                  <c:y val="0.0466735802525449"/>
+                  <c:x val="-7.4092176371791003E-3"/>
+                  <c:y val="4.6673580252544901E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8511,19 +8524,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0107022032537033"/>
-                  <c:y val="0.0402843268091398"/>
+                  <c:x val="-1.07022032537033E-2"/>
+                  <c:y val="4.0284326809139799E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8533,11 +8546,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -8578,7 +8591,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8605,22 +8618,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>475.0</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>912.0</c:v>
+                  <c:v>912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1307.0</c:v>
+                  <c:v>1307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1695.0</c:v>
+                  <c:v>1695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2005.0</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2313.0</c:v>
+                  <c:v>2313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8632,28 +8645,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.285</c:v>
+                  <c:v>2.2850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.737</c:v>
+                  <c:v>0.73699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.696</c:v>
+                  <c:v>0.69599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.591</c:v>
+                  <c:v>0.59099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.641</c:v>
+                  <c:v>0.64100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E194-9440-AAC7-F0122AAB2009}"/>
             </c:ext>
@@ -8694,8 +8707,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0715401125189849"/>
-                  <c:y val="-0.0404652718082326"/>
+                  <c:x val="-7.15401125189849E-2"/>
+                  <c:y val="-4.0465271808232603E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8705,19 +8718,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.078126083752033"/>
-                  <c:y val="-0.0319462672170257"/>
+                  <c:x val="-7.8126083752033004E-2"/>
+                  <c:y val="-3.1946267217025703E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8727,19 +8740,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0369637635454824"/>
-                  <c:y val="-0.0425950229560343"/>
+                  <c:x val="-3.6963763545482399E-2"/>
+                  <c:y val="-4.2595022956034297E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8749,19 +8762,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0583681700528888"/>
-                  <c:y val="-0.0553735298428444"/>
+                  <c:x val="-5.8368170052888801E-2"/>
+                  <c:y val="-5.5373529842844403E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8771,19 +8784,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.069893619710723"/>
-                  <c:y val="-0.0404652718082326"/>
+                  <c:x val="-6.9893619710722998E-2"/>
+                  <c:y val="-4.0465271808232603E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8793,19 +8806,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0336707779289584"/>
-                  <c:y val="-0.0553735298428446"/>
+                  <c:x val="-3.3670777928958402E-2"/>
+                  <c:y val="-5.5373529842844597E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -8815,11 +8828,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-3CE4-5547-B83A-D05F55B9BFB3}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -8860,7 +8873,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8887,22 +8900,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>475.0</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>912.0</c:v>
+                  <c:v>912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1307.0</c:v>
+                  <c:v>1307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1695.0</c:v>
+                  <c:v>1695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2005.0</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2313.0</c:v>
+                  <c:v>2313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8914,28 +8927,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.47706</c:v>
+                  <c:v>0.47705999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.701091</c:v>
+                  <c:v>0.70109100000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.831888</c:v>
+                  <c:v>0.83188799999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.761154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.02167</c:v>
+                  <c:v>1.0216700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.977306</c:v>
+                  <c:v>0.97730600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E194-9440-AAC7-F0122AAB2009}"/>
             </c:ext>
@@ -9213,14 +9226,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9260,9 +9273,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9402,7 +9415,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9429,22 +9442,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>475.0</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>912.0</c:v>
+                  <c:v>912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1307.0</c:v>
+                  <c:v>1307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1695.0</c:v>
+                  <c:v>1695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2005.0</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2313.0</c:v>
+                  <c:v>2313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9456,10 +9469,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44.528</c:v>
+                  <c:v>44.527999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.565</c:v>
+                  <c:v>75.564999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>103.515</c:v>
@@ -9468,16 +9481,16 @@
                   <c:v>130.916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152.868</c:v>
+                  <c:v>152.86799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.766</c:v>
+                  <c:v>174.76599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-159E-244C-82CA-FAD3DB23ADB8}"/>
             </c:ext>
@@ -9551,7 +9564,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9578,22 +9591,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>475.0</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>912.0</c:v>
+                  <c:v>912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1307.0</c:v>
+                  <c:v>1307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1695.0</c:v>
+                  <c:v>1695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2005.0</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2313.0</c:v>
+                  <c:v>2313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9605,19 +9618,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.47444</c:v>
+                  <c:v>6.4744400000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.23089</c:v>
+                  <c:v>7.2308899999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.95774</c:v>
+                  <c:v>7.9577400000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9334</c:v>
+                  <c:v>7.9333999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.93036</c:v>
+                  <c:v>7.9303600000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8.70336</c:v>
@@ -9626,7 +9639,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-159E-244C-82CA-FAD3DB23ADB8}"/>
             </c:ext>
@@ -9903,14 +9916,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9950,9 +9963,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10100,7 +10113,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10127,16 +10140,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10154,16 +10167,16 @@
                   <c:v>3179.241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4421.404</c:v>
+                  <c:v>4421.4040000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1882.484</c:v>
+                  <c:v>1882.4839999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA35-9C41-BB88-F6BD703211A8}"/>
             </c:ext>
@@ -10237,7 +10250,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10264,16 +10277,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10288,19 +10301,19 @@
                   <c:v>4.2885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.11413</c:v>
+                  <c:v>4.1141300000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.22387</c:v>
+                  <c:v>4.2238699999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.37457</c:v>
+                  <c:v>4.3745700000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA35-9C41-BB88-F6BD703211A8}"/>
             </c:ext>
@@ -10428,7 +10441,7 @@
       <c:valAx>
         <c:axId val="1128777520"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10578,14 +10591,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10625,9 +10638,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10734,8 +10747,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0591653258964817"/>
-                  <c:y val="0.0469334304308278"/>
+                  <c:x val="-5.9165325896481699E-2"/>
+                  <c:y val="4.6933430430827802E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -10745,19 +10758,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-EBBF-EB4D-8053-705B461A2F41}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0302657189601378"/>
-                  <c:y val="-0.00194440409871021"/>
+                  <c:x val="3.02657189601378E-2"/>
+                  <c:y val="-1.94440409871021E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -10767,19 +10780,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-EBBF-EB4D-8053-705B461A2F41}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00782528162694083"/>
-                  <c:y val="0.0405580607095837"/>
+                  <c:x val="-7.8252816269408308E-3"/>
+                  <c:y val="4.0558060709583697E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -10789,19 +10802,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-EBBF-EB4D-8053-705B461A2F41}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0186728057379834"/>
-                  <c:y val="-0.0146951435411983"/>
+                  <c:x val="1.8672805737983401E-2"/>
+                  <c:y val="-1.4695143541198301E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -10811,11 +10824,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-EBBF-EB4D-8053-705B461A2F41}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -10855,7 +10868,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10882,16 +10895,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10903,22 +10916,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.966</c:v>
+                  <c:v>0.96599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.785</c:v>
+                  <c:v>0.78500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.388</c:v>
+                  <c:v>1.3879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.451</c:v>
+                  <c:v>1.4510000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FA38-E442-92BE-9F02EA6A48F3}"/>
             </c:ext>
@@ -10959,8 +10972,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00616915116663307"/>
-                  <c:y val="-0.0363076468962157"/>
+                  <c:x val="-6.1691511666330696E-3"/>
+                  <c:y val="-3.6307646896215698E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -10970,19 +10983,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-EBBF-EB4D-8053-705B461A2F41}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0525408040552506"/>
-                  <c:y val="0.0486972827203719"/>
+                  <c:x val="-5.2540804055250599E-2"/>
+                  <c:y val="4.8697282720371902E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -10992,19 +11005,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-EBBF-EB4D-8053-705B461A2F41}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0161059339284798"/>
-                  <c:y val="-0.0448081398578744"/>
+                  <c:x val="-1.6105933928479799E-2"/>
+                  <c:y val="-4.48081398578744E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -11014,19 +11027,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-EBBF-EB4D-8053-705B461A2F41}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00873602297613685"/>
-                  <c:y val="-0.0511835095791185"/>
+                  <c:x val="8.7360229761368497E-3"/>
+                  <c:y val="-5.1183509579118498E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -11036,11 +11049,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-EBBF-EB4D-8053-705B461A2F41}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -11080,7 +11093,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11107,16 +11120,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11128,22 +11141,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.09302</c:v>
+                  <c:v>1.0930200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.735254</c:v>
+                  <c:v>0.73525399999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36715</c:v>
+                  <c:v>0.36714999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.072504</c:v>
+                  <c:v>7.2503999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FA38-E442-92BE-9F02EA6A48F3}"/>
             </c:ext>
@@ -11420,14 +11433,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11467,9 +11480,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11609,7 +11622,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11636,16 +11649,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11657,22 +11670,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20.473</c:v>
+                  <c:v>20.472999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.835</c:v>
+                  <c:v>40.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.564</c:v>
+                  <c:v>75.563999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.439</c:v>
+                  <c:v>110.43899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0C61-5D4E-A904-136707EFD904}"/>
             </c:ext>
@@ -11746,7 +11759,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11773,16 +11786,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11800,16 +11813,16 @@
                   <c:v>7.07735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.21799</c:v>
+                  <c:v>7.2179900000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.69271</c:v>
+                  <c:v>6.6927099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0C61-5D4E-A904-136707EFD904}"/>
             </c:ext>
@@ -12086,14 +12099,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12133,9 +12146,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12242,8 +12255,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0510274242919313"/>
-                  <c:y val="-0.0383355206604308"/>
+                  <c:x val="-5.10274242919313E-2"/>
+                  <c:y val="-3.8335520660430798E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -12253,19 +12266,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-0E61-EA43-B32B-7DD178F25B0E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0888864810246545"/>
-                  <c:y val="-0.0362057695126291"/>
+                  <c:x val="-8.8886481024654504E-2"/>
+                  <c:y val="-3.6205769512629098E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -12275,19 +12288,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0E61-EA43-B32B-7DD178F25B0E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.110285078308368"/>
-                  <c:y val="-0.0276867649214222"/>
+                  <c:x val="-0.11028507830836801"/>
+                  <c:y val="-2.7686764921422202E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -12297,19 +12310,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0E61-EA43-B32B-7DD178F25B0E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0905325269695555"/>
-                  <c:y val="-0.0170380091824137"/>
+                  <c:x val="-9.0532526969555494E-2"/>
+                  <c:y val="-1.7038009182413699E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -12319,19 +12332,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0E61-EA43-B32B-7DD178F25B0E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.126745537757378"/>
-                  <c:y val="-0.0106487557390086"/>
+                  <c:x val="-0.12674553775737801"/>
+                  <c:y val="-1.06487557390086E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -12341,11 +12354,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0E61-EA43-B32B-7DD178F25B0E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -12383,7 +12396,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12419,7 +12432,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0617604527780338"/>
+                  <c:x val="6.1760452778033798E-2"/>
                   <c:y val="0.153729398996723"/>
                 </c:manualLayout>
               </c:layout>
@@ -12460,19 +12473,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000.0</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000.0</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000.0</c:v>
+                  <c:v>800000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12484,25 +12497,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41.592</c:v>
+                  <c:v>41.591999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>265.182</c:v>
+                  <c:v>265.18200000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1355.398</c:v>
+                  <c:v>1355.3979999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5013.127</c:v>
+                  <c:v>5013.1270000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19782.671</c:v>
+                  <c:v>19782.670999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E020-B241-A22B-5216AB4EF8B7}"/>
             </c:ext>
@@ -12574,7 +12587,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12610,8 +12623,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0596573867367997"/>
-                  <c:y val="0.0949632824410714"/>
+                  <c:x val="5.9657386736799697E-2"/>
+                  <c:y val="9.4963282441071398E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -12651,19 +12664,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000.0</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000.0</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000.0</c:v>
+                  <c:v>800000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12675,25 +12688,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.839223</c:v>
+                  <c:v>0.83922300000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.56646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.92511</c:v>
+                  <c:v>2.9251100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.92656</c:v>
+                  <c:v>5.9265600000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.3669</c:v>
+                  <c:v>12.366899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E020-B241-A22B-5216AB4EF8B7}"/>
             </c:ext>
@@ -12821,7 +12834,7 @@
       <c:valAx>
         <c:axId val="1159798960"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12973,14 +12986,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13020,9 +13033,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13129,8 +13142,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0357604083230293"/>
-                  <c:y val="-0.0598139771375408"/>
+                  <c:x val="-3.5760408323029298E-2"/>
+                  <c:y val="-5.9813977137540802E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -13140,19 +13153,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-1F4D-EA4C-8040-4F7B383649DA}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0456366827123723"/>
-                  <c:y val="-0.0598139771375408"/>
+                  <c:x val="-4.5636682712372298E-2"/>
+                  <c:y val="-5.9813977137540802E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -13162,19 +13175,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-1F4D-EA4C-8040-4F7B383649DA}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0851417802697442"/>
-                  <c:y val="-0.0470354702507305"/>
+                  <c:x val="-8.5141780269744199E-2"/>
+                  <c:y val="-4.7035470250730502E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -13184,11 +13197,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1F4D-EA4C-8040-4F7B383649DA}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -13229,7 +13242,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13256,19 +13269,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000.0</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000.0</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000.0</c:v>
+                  <c:v>800000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13283,7 +13296,7 @@
                   <c:v>5.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.472</c:v>
+                  <c:v>5.4720000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16.512</c:v>
@@ -13292,13 +13305,13 @@
                   <c:v>30.238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.624</c:v>
+                  <c:v>98.623999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B399-B94F-A00E-1C2A401923EB}"/>
             </c:ext>
@@ -13339,8 +13352,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0716029893227365"/>
-                  <c:y val="0.00231086384383524"/>
+                  <c:x val="-7.1602989322736496E-2"/>
+                  <c:y val="2.3108638438352402E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -13350,19 +13363,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-1F4D-EA4C-8040-4F7B383649DA}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0386820746915932"/>
-                  <c:y val="0.0129596195828438"/>
+                  <c:x val="3.8682074691593203E-2"/>
+                  <c:y val="1.29596195828438E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -13372,19 +13385,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-1F4D-EA4C-8040-4F7B383649DA}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.025513708839136"/>
-                  <c:y val="-0.0424139102600009"/>
+                  <c:x val="2.5513708839136E-2"/>
+                  <c:y val="-4.2413910260000902E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -13394,19 +13407,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1F4D-EA4C-8040-4F7B383649DA}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00576116006045006"/>
-                  <c:y val="-0.0658411728858195"/>
+                  <c:x val="-5.7611600604500603E-3"/>
+                  <c:y val="-6.5841172885819504E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -13416,19 +13429,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-1F4D-EA4C-8040-4F7B383649DA}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0123453429866788"/>
-                  <c:y val="-0.0658411728858195"/>
+                  <c:x val="-1.23453429866788E-2"/>
+                  <c:y val="-6.5841172885819504E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -13438,11 +13451,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-1F4D-EA4C-8040-4F7B383649DA}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -13482,7 +13495,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13509,19 +13522,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000.0</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000.0</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000.0</c:v>
+                  <c:v>800000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13533,25 +13546,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.70612</c:v>
+                  <c:v>2.7061199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.76629</c:v>
+                  <c:v>3.7662900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.41187</c:v>
+                  <c:v>6.4118700000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.764150000000001</c:v>
+                  <c:v>9.7641500000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.3455</c:v>
+                  <c:v>14.345499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B399-B94F-A00E-1C2A401923EB}"/>
             </c:ext>
@@ -13828,14 +13841,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13875,9 +13888,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13984,8 +13997,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0650188063965078"/>
-                  <c:y val="-0.0214784564771099"/>
+                  <c:x val="-6.5018806396507797E-2"/>
+                  <c:y val="-2.14784564771099E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -13995,11 +14008,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-32E3-E640-98DD-3424ADF3CA32}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -14037,7 +14050,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14064,19 +14077,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000.0</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000.0</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000.0</c:v>
+                  <c:v>800000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14088,25 +14101,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.757</c:v>
+                  <c:v>6.7569999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.188</c:v>
+                  <c:v>27.187999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.642</c:v>
+                  <c:v>54.642000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.448</c:v>
+                  <c:v>109.44799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C477-4E4E-9B75-8C2609729AE6}"/>
             </c:ext>
@@ -14147,8 +14160,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0650188063965078"/>
-                  <c:y val="-0.0236082076249116"/>
+                  <c:x val="-6.5018806396507797E-2"/>
+                  <c:y val="-2.3608207624911601E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -14158,11 +14171,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-32E3-E640-98DD-3424ADF3CA32}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -14200,7 +14213,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14227,19 +14240,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000.0</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000.0</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000.0</c:v>
+                  <c:v>800000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14257,19 +14270,19 @@
                   <c:v>2.37825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.72845</c:v>
+                  <c:v>4.7284499999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.430720000000001</c:v>
+                  <c:v>9.4307200000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.8926</c:v>
+                  <c:v>18.892600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C477-4E4E-9B75-8C2609729AE6}"/>
             </c:ext>
@@ -14546,14 +14559,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -22756,7 +22769,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B71CBDFE-E21B-5B45-9EE4-5574B84FEF8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71CBDFE-E21B-5B45-9EE4-5574B84FEF8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22840,7 +22853,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0B6B53E-6C8C-2942-B23F-AEF2A21946FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B6B53E-6C8C-2942-B23F-AEF2A21946FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22938,7 +22951,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5E84CFB-B181-5947-B37E-A0D187C55DF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E84CFB-B181-5947-B37E-A0D187C55DF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23041,7 +23054,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57DFE140-96C0-D247-B705-74586BF12360}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DFE140-96C0-D247-B705-74586BF12360}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23079,7 +23092,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D81848F-275A-394C-BF71-E223B6448B50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D81848F-275A-394C-BF71-E223B6448B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23117,7 +23130,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F62EF3F-A5A7-814C-86EC-D78AC032088D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62EF3F-A5A7-814C-86EC-D78AC032088D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23155,7 +23168,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17FB7669-919F-2C41-BDCD-BBF7F0C97053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17FB7669-919F-2C41-BDCD-BBF7F0C97053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23193,7 +23206,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13495884-6824-3C42-AF55-72D4C13867B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13495884-6824-3C42-AF55-72D4C13867B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23231,7 +23244,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8AB0919-C6EE-3F4E-BBD7-1EF55BBE9434}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8AB0919-C6EE-3F4E-BBD7-1EF55BBE9434}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23269,7 +23282,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A46DC16B-169B-E545-A944-136F1678D9B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46DC16B-169B-E545-A944-136F1678D9B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23307,7 +23320,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43C000FD-0381-3546-B684-E50BE433C4FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C000FD-0381-3546-B684-E50BE433C4FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23345,7 +23358,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AADD5044-9850-9248-B53C-20F8C8E2B807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADD5044-9850-9248-B53C-20F8C8E2B807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23383,7 +23396,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73F6180F-9718-E14B-A4FB-3D79602CA387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F6180F-9718-E14B-A4FB-3D79602CA387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23426,7 +23439,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{187395E4-16BF-1145-9B51-953982095FDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187395E4-16BF-1145-9B51-953982095FDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23464,7 +23477,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{654CC839-E75E-9D4C-96FE-36BC8CBBDC34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654CC839-E75E-9D4C-96FE-36BC8CBBDC34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23502,7 +23515,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{172A65F2-4122-4240-89A3-C5BD91DD2060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172A65F2-4122-4240-89A3-C5BD91DD2060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23535,7 +23548,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C70F9D66-3858-7045-B542-EF45974A6CD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70F9D66-3858-7045-B542-EF45974A6CD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23726,7 +23739,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE570E90-9342-284C-99D7-B87D2E368E85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE570E90-9342-284C-99D7-B87D2E368E85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23871,7 +23884,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7D46D72-3E84-0942-9B40-B8B9A788E896}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D46D72-3E84-0942-9B40-B8B9A788E896}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24003,7 +24016,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95191F6C-F431-0343-BCA1-19B7EE9F6149}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95191F6C-F431-0343-BCA1-19B7EE9F6149}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24126,7 +24139,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D8FB1BB-055E-684A-82A8-CAA2687220B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8FB1BB-055E-684A-82A8-CAA2687220B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24164,7 +24177,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B93620C-1A7B-3445-B821-266D99FE8E4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B93620C-1A7B-3445-B821-266D99FE8E4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24202,7 +24215,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F5566DB-9AA7-C54F-BB76-AB6655FA646E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5566DB-9AA7-C54F-BB76-AB6655FA646E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24240,7 +24253,7 @@
         <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4B4D6D9-2769-ED42-AAC0-90EA60BDCFD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B4D6D9-2769-ED42-AAC0-90EA60BDCFD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24278,7 +24291,7 @@
         <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5355DBD-FD97-7D49-B18A-BD66D0AEF37C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5355DBD-FD97-7D49-B18A-BD66D0AEF37C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24597,11 +24610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25529,7 +25542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="S61" zoomScale="112" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
@@ -25545,14 +25558,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="107" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26211,6 +26224,53 @@
         <v>420279.86892522278</v>
       </c>
     </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="17">
+        <f>E2/F2</f>
+        <v>9.1477272727272716</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="17">
+        <f t="shared" ref="F26:F35" si="4">E3/F3</f>
+        <v>8.881465517241379</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0805729632945389</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="17">
+        <f t="shared" si="4"/>
+        <v>0.22480127186009541</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="17">
+        <f t="shared" si="4"/>
+        <v>0.46898928024502301</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="17">
+        <f t="shared" si="4"/>
+        <v>6.9853942832774614</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="17">
+        <f t="shared" si="4"/>
+        <v>1.124437781109445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -26218,7 +26278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
@@ -26613,7 +26673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
@@ -27438,7 +27498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
@@ -28415,7 +28475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
@@ -29602,7 +29662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29889,11 +29949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30169,6 +30229,16 @@
         <v>1.0847500000000001</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -30176,13 +30246,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="44" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="68" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>

--- a/final_experiments_data_with__SUBSEQ_tree_expansion_performance.xlsx
+++ b/final_experiments_data_with__SUBSEQ_tree_expansion_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A945680-87BF-3743-8021-5A3C13FC39F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ADA39B-6DFA-2E47-A843-9A0FE1C31039}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="7200" windowWidth="38400" windowHeight="21600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy %" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="90">
   <si>
     <t>DG</t>
   </si>
@@ -348,19 +348,30 @@
     <t>CPT/SUBSEQ</t>
   </si>
   <si>
-    <t>These experiments still reflect the old SUBSEQ (as was published); We need to repeat with the Tree_Expansion Version</t>
+    <t>Left are the results from PUBLISHED SUBSEQ</t>
   </si>
   <si>
-    <t>Remove comment below when numbers are updated</t>
+    <t>Right are from the Tree_Expansion_testing_performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Unchanged</t>
+  </si>
+  <si>
+    <t>The experiments we repeated on the right, were run under the same training/queries datasets as we had exported for experiments on the left. We kept the same variables as before. The only change lies on the tree_expansion mechanism that we included in our prediction phase. Nothing else got changed. Accuracy evaluation was not and is not performed for the QUEST data points.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -456,7 +467,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -486,8 +497,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -25565,7 +25587,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26282,7 +26304,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28479,7 +28501,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29950,10 +29972,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29961,7 +29983,7 @@
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>57</v>
       </c>
@@ -29983,8 +30005,32 @@
       <c r="G1" s="15" t="s">
         <v>66</v>
       </c>
+      <c r="I1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -30006,8 +30052,22 @@
       <c r="G2" s="3">
         <v>4.5786499999999997</v>
       </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -30029,8 +30089,29 @@
       <c r="G3" s="3">
         <v>0.97730600000000001</v>
       </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="22">
+        <v>8.0549999999999997E-3</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>7.1929999999999997E-3</v>
+      </c>
+      <c r="R3" s="22">
+        <v>6.7819999999999998E-3</v>
+      </c>
+      <c r="S3" s="22">
+        <v>8.6689999999999996E-3</v>
+      </c>
+      <c r="T3" s="22">
+        <v>9.9039999999999996E-3</v>
+      </c>
+      <c r="U3" s="22">
+        <v>8.0759999999999998E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -30052,8 +30133,35 @@
       <c r="G4" s="3">
         <v>8.70336</v>
       </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
     </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I5" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>60</v>
       </c>
@@ -30069,8 +30177,28 @@
       <c r="E7" s="18" t="s">
         <v>67</v>
       </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="O7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -30086,8 +30214,22 @@
       <c r="E8" s="17">
         <v>4.3745700000000003</v>
       </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -30103,8 +30245,28 @@
       <c r="E9" s="17">
         <v>7.2503999999999999E-2</v>
       </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="22">
+        <v>3.3939999999999999E-3</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>3.676E-3</v>
+      </c>
+      <c r="R9" s="22">
+        <v>6.0590000000000001E-3</v>
+      </c>
+      <c r="S9" s="22">
+        <v>1.3009E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -30120,8 +30282,29 @@
       <c r="E10" s="17">
         <v>6.6927099999999999</v>
       </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
@@ -30140,8 +30323,31 @@
       <c r="F12" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="O12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
@@ -30160,8 +30366,18 @@
       <c r="F13" s="3">
         <v>12.366899999999999</v>
       </c>
+      <c r="O13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>56</v>
       </c>
@@ -30180,8 +30396,26 @@
       <c r="F14" s="3">
         <v>14.345499999999999</v>
       </c>
+      <c r="O14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="21">
+        <v>7.7099999999999998E-4</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>1.2719999999999999E-3</v>
+      </c>
+      <c r="R14" s="21">
+        <v>2.431E-3</v>
+      </c>
+      <c r="S14" s="21">
+        <v>4.9319999999999998E-3</v>
+      </c>
+      <c r="T14" s="21">
+        <v>1.0858E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -30200,8 +30434,18 @@
       <c r="F15" s="3">
         <v>18.892600000000002</v>
       </c>
+      <c r="O15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>76</v>
       </c>
@@ -30214,8 +30458,20 @@
       <c r="D18" s="3">
         <v>12</v>
       </c>
+      <c r="O18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>6</v>
+      </c>
+      <c r="R18" s="3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -30228,18 +30484,35 @@
       <c r="D19">
         <v>1.0847500000000001</v>
       </c>
+      <c r="O19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19">
+        <v>3.1500000000000001E-4</v>
+      </c>
+      <c r="Q19">
+        <v>3.1399999999999999E-4</v>
+      </c>
+      <c r="R19">
+        <v>3.28E-4</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>85</v>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="P28" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I5:M12"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P15:T15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/final_experiments_data_with__SUBSEQ_tree_expansion_performance.xlsx
+++ b/final_experiments_data_with__SUBSEQ_tree_expansion_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F7720D-CC61-6545-9023-5D4B3ADA3BDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF69406B-D008-A644-BC61-970AC9C9FD71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="7200" windowWidth="38400" windowHeight="21600" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="7200" windowWidth="38400" windowHeight="21600" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy %" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Scalability Charts SBP OLD" sheetId="10" r:id="rId9"/>
     <sheet name="Scalability Charts SBP Tree Exp" sheetId="11" r:id="rId10"/>
     <sheet name="Performance Charts" sheetId="5" r:id="rId11"/>
+    <sheet name="SBP Tree Exp. LATEX Exports" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Datasets Attributes, Notes'!$E$39:$E$43</definedName>
@@ -33,6 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Execution Time per Query (μs)'!$P$69:$AA$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Memory - Input Ratio'!$Z$13:$AC$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Performance Charts'!$Z$69:$AK$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'SBP Tree Exp. LATEX Exports'!$M$37:$W$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Scalability Charts SBP OLD'!$L$92:$V$119</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Scalability Charts SBP Tree Exp'!$L$92:$V$119</definedName>
   </definedNames>
@@ -384,7 +386,7 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -12955,6 +12957,3572 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200">
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPT+</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.15401125189849E-2"/>
+                  <c:y val="-4.0465271808232603E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-15AE-AD4A-99B2-1668F9A5FEDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8126083752033004E-2"/>
+                  <c:y val="-3.1946267217025703E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-15AE-AD4A-99B2-1668F9A5FEDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6963763545482399E-2"/>
+                  <c:y val="-4.2595022956034297E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-15AE-AD4A-99B2-1668F9A5FEDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8368170052888801E-2"/>
+                  <c:y val="-5.5373529842844403E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-15AE-AD4A-99B2-1668F9A5FEDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9893619710722998E-2"/>
+                  <c:y val="-4.0465271808232603E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-15AE-AD4A-99B2-1668F9A5FEDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3670777928958402E-2"/>
+                  <c:y val="-5.5373529842844597E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-15AE-AD4A-99B2-1668F9A5FEDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Datasets Attributes, Notes'!$D$27:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability CPT+'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-15AE-AD4A-99B2-1668F9A5FEDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUBSEQ Prime</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7086829892292725E-2"/>
+                  <c:y val="0.10684842119121145"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-15AE-AD4A-99B2-1668F9A5FEDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0106191588032449E-2"/>
+                  <c:y val="9.7155864140114595E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-15AE-AD4A-99B2-1668F9A5FEDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2774212086835473E-2"/>
+                  <c:y val="9.4732724877340496E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-15AE-AD4A-99B2-1668F9A5FEDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Datasets Attributes, Notes'!$D$27:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability subSeq'!$P$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.0549999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1929999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7819999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6689999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9039999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0759999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-15AE-AD4A-99B2-1668F9A5FEDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1111315824"/>
+        <c:axId val="1110723552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1111315824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Alphabet Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110723552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1110723552"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1111315824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2800">
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPT+</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.15401125189849E-2"/>
+                  <c:y val="-4.0465271808232603E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-05D8-7A48-84C7-C7C19F0FE7A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8126083752033004E-2"/>
+                  <c:y val="-3.1946267217025703E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-05D8-7A48-84C7-C7C19F0FE7A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6963763545482399E-2"/>
+                  <c:y val="-4.2595022956034297E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-05D8-7A48-84C7-C7C19F0FE7A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8368170052888801E-2"/>
+                  <c:y val="-5.5373529842844403E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-05D8-7A48-84C7-C7C19F0FE7A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9893619710722998E-2"/>
+                  <c:y val="-4.0465271808232603E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-05D8-7A48-84C7-C7C19F0FE7A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3670777928958402E-2"/>
+                  <c:y val="-5.5373529842844597E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-05D8-7A48-84C7-C7C19F0FE7A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Datasets Attributes, Notes'!$C$34:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability CPT+'!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4510000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-05D8-7A48-84C7-C7C19F0FE7A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUBSEQ Prime </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7086829892292725E-2"/>
+                  <c:y val="0.10684842119121145"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-05D8-7A48-84C7-C7C19F0FE7A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0106191588032449E-2"/>
+                  <c:y val="9.7155864140114595E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-05D8-7A48-84C7-C7C19F0FE7A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2774212086835473E-2"/>
+                  <c:y val="9.4732724877340496E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-05D8-7A48-84C7-C7C19F0FE7A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Datasets Attributes, Notes'!$C$34:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability subSeq'!$P$9:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3939999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.676E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0590000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3009E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-05D8-7A48-84C7-C7C19F0FE7A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1111315824"/>
+        <c:axId val="1110723552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1111315824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Items</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per sequence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110723552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1110723552"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1111315824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="0.01"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2800">
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPT+</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.15401125189849E-2"/>
+                  <c:y val="-4.0465271808232603E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-EDBB-DF46-9600-EF849A20B37A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8126083752033004E-2"/>
+                  <c:y val="-3.1946267217025703E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-EDBB-DF46-9600-EF849A20B37A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6963763545482399E-2"/>
+                  <c:y val="-4.2595022956034297E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-EDBB-DF46-9600-EF849A20B37A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8368170052888801E-2"/>
+                  <c:y val="-5.5373529842844403E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-EDBB-DF46-9600-EF849A20B37A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9893619710722998E-2"/>
+                  <c:y val="-4.0465271808232603E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-EDBB-DF46-9600-EF849A20B37A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3670777928958402E-2"/>
+                  <c:y val="-5.5373529842844597E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-EDBB-DF46-9600-EF849A20B37A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Datasets Attributes, Notes'!$E$39:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability CPT+'!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.623999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-EDBB-DF46-9600-EF849A20B37A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUBSEQ Prime </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7086829892292725E-2"/>
+                  <c:y val="0.10684842119121145"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-EDBB-DF46-9600-EF849A20B37A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0106191588032449E-2"/>
+                  <c:y val="9.7155864140114595E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-EDBB-DF46-9600-EF849A20B37A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2774212086835473E-2"/>
+                  <c:y val="9.4732724877340496E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-EDBB-DF46-9600-EF849A20B37A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Datasets Attributes, Notes'!$E$39:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability subSeq'!$P$14:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.7099999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2719999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.431E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9319999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0858E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-EDBB-DF46-9600-EF849A20B37A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1111315824"/>
+        <c:axId val="1110723552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1111315824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of training sequences</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110723552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1110723552"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1111315824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="0.01"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2800">
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPT+</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.15401125189849E-2"/>
+                  <c:y val="-4.0465271808232603E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-3386-824B-9F61-AD7F590ADA9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8126083752033004E-2"/>
+                  <c:y val="-3.1946267217025703E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-3386-824B-9F61-AD7F590ADA9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6963763545482399E-2"/>
+                  <c:y val="-4.2595022956034297E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-3386-824B-9F61-AD7F590ADA9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8368170052888801E-2"/>
+                  <c:y val="-5.5373529842844403E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-3386-824B-9F61-AD7F590ADA9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9893619710722998E-2"/>
+                  <c:y val="-4.0465271808232603E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-3386-824B-9F61-AD7F590ADA9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3670777928958402E-2"/>
+                  <c:y val="-5.5373529842844597E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-3386-824B-9F61-AD7F590ADA9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Scalability subSeq'!$B$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability CPT+'!$B$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-3386-824B-9F61-AD7F590ADA9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SUBSEQ Prime </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.091205232710714E-2"/>
+                  <c:y val="-0.1623203847068157"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-3386-824B-9F61-AD7F590ADA9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0106191588032449E-2"/>
+                  <c:y val="9.7155864140114595E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-3386-824B-9F61-AD7F590ADA9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2774212086835473E-2"/>
+                  <c:y val="9.4732724877340496E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-3386-824B-9F61-AD7F590ADA9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Scalability subSeq'!$B$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability subSeq'!$P$19:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.28E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-3386-824B-9F61-AD7F590ADA9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1111315824"/>
+        <c:axId val="1110723552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1111315824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Query prefix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> length</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110723552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1110723552"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1111315824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="0.01"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2800">
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPT+</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SIGN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSNBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIBLE_WORD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BIBLE_CHAR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KOSARAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FIFA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Time per Query (μs)'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>393.37175792507207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>623.46153846153857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.21568627450981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197.21590909090912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.977591036414559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1863.72121966397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183.6901408450704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D690-3946-9C33-7EDB04D1F98F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>subSeq Prime</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="diagBrick">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SIGN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSNBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIBLE_WORD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BIBLE_CHAR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KOSARAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FIFA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Time per Query (μs)'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30.432276657060523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.230769230769226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.577030812324935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.346590909090907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.899159663865547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262.66023646546358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.577464788732399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D690-3946-9C33-7EDB04D1F98F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1161758576"/>
+        <c:axId val="1161761968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1161758576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161761968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1161761968"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161758576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2800">
           <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
@@ -18824,6 +22392,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25615,6 +29263,1012 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -30923,6 +35577,201 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>440454</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>435989</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>155106</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728ADA87-2EEB-3043-B08B-5E4BC24D744E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>446801</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>442335</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>150675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD394C0-705D-3A4D-AEE2-72EEA4001743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>516990</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>135251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>512525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>178793</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50C25B2-BF28-2D42-A3E8-F0946F8AB312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>288151</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>125400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283686</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>165043</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCE1E96-E675-4B41-BC6A-DBABDBC0D8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>611481</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>94073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>613602</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>137616</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CE7CAC-6521-024F-B546-2A650AC38959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -31226,12 +36075,12 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31269,7 +36118,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -31311,7 +36160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -31353,7 +36202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -31395,7 +36244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -31437,7 +36286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -31479,7 +36328,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -31521,7 +36370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -31563,12 +36412,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="O9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -31604,7 +36453,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -31640,7 +36489,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -31676,7 +36525,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -31712,7 +36561,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -31748,7 +36597,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -31784,7 +36633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -31820,7 +36669,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -31856,7 +36705,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -31892,7 +36741,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -31928,7 +36777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -31964,7 +36813,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -32000,7 +36849,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -32036,7 +36885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -32072,7 +36921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -32108,7 +36957,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -32157,11 +37006,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -32177,7 +37026,26 @@
       <selection activeCell="X74" sqref="X74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3E8E58-2DF9-BC47-B758-1178512153D1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="AD44" sqref="AD44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -32196,12 +37064,12 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="80">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -32261,7 +37129,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -32339,7 +37207,7 @@
         <v>0.85116285714285722</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -32417,7 +37285,7 @@
         <v>2.8037742857142862</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -32495,7 +37363,7 @@
         <v>2.7205300000000009E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -32573,7 +37441,7 @@
         <v>5.3517435714285709E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -32651,7 +37519,7 @@
         <v>5.0205578571428565E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -32729,7 +37597,7 @@
         <v>0.93302292857142866</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -32807,7 +37675,7 @@
         <v>0.72154742857142862</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -32852,48 +37720,48 @@
         <v>420279.86892522278</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:6">
       <c r="F24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:6">
       <c r="F25" s="17">
         <f>E2/F2</f>
         <v>9.1477272727272716</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:6">
       <c r="F26" s="17">
         <f t="shared" ref="F26:F35" si="4">E3/F3</f>
         <v>8.881465517241379</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:6">
       <c r="F27" s="17">
         <f t="shared" si="4"/>
         <v>1.0805729632945389</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:6">
       <c r="F28" s="17">
         <f t="shared" si="4"/>
         <v>0.22480127186009541</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:6">
       <c r="F29" s="17">
         <f t="shared" si="4"/>
         <v>0.46898928024502301</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:6">
       <c r="F30" s="17">
         <f t="shared" si="4"/>
         <v>6.9853942832774614</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:6">
       <c r="F31" s="17">
         <f t="shared" si="4"/>
         <v>1.124437781109445</v>
@@ -32913,14 +37781,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32964,7 +37832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -33011,7 +37879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -33058,7 +37926,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -33105,7 +37973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -33152,7 +38020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -33199,7 +38067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -33246,7 +38114,7 @@
         <v>33920</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -33308,13 +38176,13 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33349,7 +38217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -33390,7 +38258,7 @@
         <v>9.2481328305929118</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -33431,7 +38299,7 @@
         <v>8.8457967152088148</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -33472,7 +38340,7 @@
         <v>14.940104403267581</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -33513,7 +38381,7 @@
         <v>6.8231258250680265</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -33554,7 +38422,7 @@
         <v>11.325399218485586</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -33595,7 +38463,7 @@
         <v>5.9358621367039852</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -33636,10 +38504,10 @@
         <v>6.9339743693278981</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -33669,7 +38537,7 @@
         <v>8.3239999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -33699,7 +38567,7 @@
         <v>0.72475000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -33729,7 +38597,7 @@
         <v>0.59789999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -33759,7 +38627,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -33789,7 +38657,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -33819,7 +38687,7 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -33849,7 +38717,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -33879,7 +38747,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -33909,7 +38777,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -33939,7 +38807,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -33969,7 +38837,7 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -33999,7 +38867,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -34029,7 +38897,7 @@
         <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -34059,7 +38927,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -34089,7 +38957,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -34133,14 +39001,14 @@
       <selection activeCell="Z13" sqref="Z13:AC40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -34167,7 +39035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -34204,7 +39072,7 @@
         <v>5.5995301263850479</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -34241,7 +39109,7 @@
         <v>5.0763031822075568</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -34278,7 +39146,7 @@
         <v>4.1442518429966126</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -34315,7 +39183,7 @@
         <v>3.3961983804378977</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -34352,7 +39220,7 @@
         <v>42.767914833389746</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -34389,7 +39257,7 @@
         <v>4.8611651834311216</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -34426,7 +39294,7 @@
         <v>3.5892272932021827</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="19" t="s">
         <v>79</v>
       </c>
@@ -34463,7 +39331,7 @@
         <v>9.9192272631500238</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="13" t="s">
         <v>44</v>
       </c>
@@ -34500,11 +39368,11 @@
         <v>14.506912781063331</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
@@ -34541,7 +39409,7 @@
         <v>5.667307790505693</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
@@ -34578,7 +39446,7 @@
         <v>5.8251159145823816</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="12" t="s">
         <v>29</v>
       </c>
@@ -34615,7 +39483,7 @@
         <v>5.9511782417199592</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -34652,7 +39520,7 @@
         <v>6.0420280712821324</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -34689,7 +39557,7 @@
         <v>3.7932118924934084</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
@@ -34726,7 +39594,7 @@
         <v>3.2913889185945653</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
@@ -34763,7 +39631,7 @@
         <v>4.6756282875511408</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -34800,7 +39668,7 @@
         <v>5.0650479498359937</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
@@ -34837,7 +39705,7 @@
         <v>3.8827360991239686</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
         <v>36</v>
       </c>
@@ -34874,7 +39742,7 @@
         <v>3.9680878671946291</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
@@ -34911,7 +39779,7 @@
         <v>4.256900650687558</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="12" t="s">
         <v>38</v>
       </c>
@@ -34948,7 +39816,7 @@
         <v>2.9374369766320316</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
         <v>39</v>
       </c>
@@ -34985,7 +39853,7 @@
         <v>6.2305374980180757</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="12" t="s">
         <v>40</v>
       </c>
@@ -35022,7 +39890,7 @@
         <v>3.0290770651147834</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
         <v>41</v>
       </c>
@@ -35059,7 +39927,7 @@
         <v>2.8324673571139241</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
         <v>42</v>
       </c>
@@ -35110,12 +39978,12 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="48">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -35141,7 +40009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -35173,7 +40041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -35205,7 +40073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -35237,7 +40105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -35269,7 +40137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -35301,7 +40169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -35333,7 +40201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -35365,11 +40233,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="C9" s="3"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -35400,7 +40268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -35431,7 +40299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -35462,7 +40330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -35493,7 +40361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -35527,7 +40395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -35558,7 +40426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -35589,7 +40457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -35620,7 +40488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -35651,7 +40519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -35682,7 +40550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -35713,7 +40581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -35744,7 +40612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -35775,7 +40643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -35806,7 +40674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -35837,7 +40705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -35868,10 +40736,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="11" t="s">
         <v>61</v>
       </c>
@@ -35898,7 +40766,7 @@
         <v>4.5393761249999995</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="11" t="s">
         <v>62</v>
       </c>
@@ -35925,7 +40793,7 @@
         <v>5.0455825000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="11" t="s">
         <v>63</v>
       </c>
@@ -35952,7 +40820,7 @@
         <v>5.5499839999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="11" t="s">
         <v>64</v>
       </c>
@@ -35979,7 +40847,7 @@
         <v>5.5458631249999994</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="11" t="s">
         <v>65</v>
       </c>
@@ -36006,7 +40874,7 @@
         <v>5.5499056250000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="11" t="s">
         <v>66</v>
       </c>
@@ -36033,10 +40901,10 @@
         <v>6.053922</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="H33" s="17"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -36063,7 +40931,7 @@
         <v>4.8980974999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -36090,7 +40958,7 @@
         <v>4.9787912499999996</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -36117,7 +40985,7 @@
         <v>5.0455350000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
@@ -36144,10 +41012,10 @@
         <v>4.66667875</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -36174,7 +41042,7 @@
         <v>0.82836999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>75</v>
       </c>
@@ -36201,7 +41069,7 @@
         <v>1.6594487499999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
@@ -36228,7 +41096,7 @@
         <v>3.3198737499999997</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -36255,7 +41123,7 @@
         <v>6.6420724999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>73</v>
       </c>
@@ -36297,12 +41165,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
         <v>57</v>
       </c>
@@ -36325,7 +41193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -36348,7 +41216,7 @@
         <v>2920.9470000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -36371,7 +41239,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -36394,7 +41262,7 @@
         <v>174.76599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="32">
       <c r="A7" s="15" t="s">
         <v>60</v>
       </c>
@@ -36411,7 +41279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -36428,7 +41296,7 @@
         <v>1882.4839999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -36445,7 +41313,7 @@
         <v>1.4510000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -36462,7 +41330,7 @@
         <v>110.43899999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
@@ -36482,7 +41350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
@@ -36502,7 +41370,7 @@
         <v>19782.670999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="11" t="s">
         <v>56</v>
       </c>
@@ -36522,7 +41390,7 @@
         <v>98.623999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -36542,7 +41410,7 @@
         <v>109.44799999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="16" t="s">
         <v>76</v>
       </c>
@@ -36556,7 +41424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -36584,12 +41452,12 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="15" t="s">
         <v>57</v>
       </c>
@@ -36636,7 +41504,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -36673,7 +41541,7 @@
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -36717,7 +41585,7 @@
         <v>8.0759999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -36751,7 +41619,7 @@
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="I5" s="27" t="s">
         <v>89</v>
       </c>
@@ -36760,14 +41628,14 @@
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="34">
       <c r="A7" s="15" t="s">
         <v>60</v>
       </c>
@@ -36804,7 +41672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -36835,7 +41703,7 @@
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -36872,7 +41740,7 @@
         <v>1.3009E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -36903,14 +41771,14 @@
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="34">
       <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
@@ -36953,7 +41821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
@@ -36983,7 +41851,7 @@
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="11" t="s">
         <v>56</v>
       </c>
@@ -37021,7 +41889,7 @@
         <v>1.0858E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -37051,7 +41919,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="16" t="s">
         <v>76</v>
       </c>
@@ -37077,7 +41945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -37103,7 +41971,7 @@
         <v>3.28E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="I27" s="26" t="s">
         <v>90</v>
       </c>
@@ -37112,13 +41980,13 @@
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="23"/>
       <c r="P28" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="G29" s="15" t="s">
         <v>57</v>
       </c>
@@ -37141,7 +42009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
@@ -37149,7 +42017,7 @@
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
     </row>
-    <row r="31" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="85">
       <c r="G31" s="28" t="s">
         <v>91</v>
       </c>
@@ -37178,7 +42046,7 @@
         <v>121.01362060425954</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
@@ -37186,7 +42054,7 @@
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
     </row>
-    <row r="35" spans="7:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:12" ht="34">
       <c r="G35" s="15" t="s">
         <v>60</v>
       </c>
@@ -37203,13 +42071,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:12">
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="7:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:12" ht="85">
       <c r="G37" s="28" t="s">
         <v>91</v>
       </c>
@@ -37230,13 +42098,13 @@
         <v>5.5733722807287265</v>
       </c>
     </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:12">
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="40" spans="7:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:12" ht="34">
       <c r="G40" s="16" t="s">
         <v>59</v>
       </c>
@@ -37256,7 +42124,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:12">
       <c r="G41" s="11"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
@@ -37264,7 +42132,7 @@
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
     </row>
-    <row r="42" spans="7:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:12" ht="85">
       <c r="G42" s="28" t="s">
         <v>91</v>
       </c>
@@ -37289,7 +42157,7 @@
         <v>1321.1917480198931</v>
       </c>
     </row>
-    <row r="43" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:12">
       <c r="G43" s="11"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
@@ -37297,7 +42165,7 @@
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
     </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:12">
       <c r="G46" s="16" t="s">
         <v>76</v>
       </c>
@@ -37311,7 +42179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="7:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:12" ht="85">
       <c r="G47" s="28" t="s">
         <v>91</v>
       </c>
@@ -37361,7 +42229,7 @@
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/final_experiments_data_with__SUBSEQ_tree_expansion_performance.xlsx
+++ b/final_experiments_data_with__SUBSEQ_tree_expansion_performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF69406B-D008-A644-BC61-970AC9C9FD71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB1B81E-88BB-3B4E-9599-E69D6CC60818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="7200" windowWidth="38400" windowHeight="21600" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16188,7 +16188,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>subSeq Prime</c:v>
+            <c:v>SUBSEQ Prime</c:v>
           </c:tx>
           <c:spPr>
             <a:pattFill prst="diagBrick">
@@ -36071,8 +36071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView zoomScale="125" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36138,7 +36138,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="4">
         <v>33</v>
@@ -36180,7 +36180,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4">
         <v>23</v>
@@ -36306,7 +36306,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H6" s="4">
         <v>88</v>
@@ -36348,7 +36348,7 @@
         <v>29</v>
       </c>
       <c r="G7" s="3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4">
         <v>34</v>
@@ -37006,7 +37006,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
+    <sheetView topLeftCell="F17" zoomScale="108" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -37042,7 +37042,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="AD44" sqref="AD44"/>
+      <selection activeCell="AJ60" sqref="AJ60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38997,7 +38997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
       <selection activeCell="Z13" sqref="Z13:AC40"/>
     </sheetView>
   </sheetViews>

--- a/final_experiments_data_with__SUBSEQ_tree_expansion_performance.xlsx
+++ b/final_experiments_data_with__SUBSEQ_tree_expansion_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB1B81E-88BB-3B4E-9599-E69D6CC60818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE2BF6D-9182-0347-944E-34BA125C585C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="7200" windowWidth="38400" windowHeight="21600" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="7200" windowWidth="38400" windowHeight="21600" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy %" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -352,16 +352,10 @@
     <t>subSeq (treeExpansion)</t>
   </si>
   <si>
-    <t>CPT/SUBSEQ</t>
-  </si>
-  <si>
     <t>Left are the results from PUBLISHED SUBSEQ</t>
   </si>
   <si>
     <t>Right are from the Tree_Expansion_testing_performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Unchanged</t>
@@ -375,6 +369,12 @@
   <si>
     <t>Test time SBP_old over SBP_Tree_exp</t>
   </si>
+  <si>
+    <t>Various Datasets</t>
+  </si>
+  <si>
+    <t>CPT+/SUBSEQ</t>
+  </si>
 </sst>
 </file>
 
@@ -386,7 +386,7 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -36075,12 +36075,12 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48">
+    <row r="1" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36118,7 +36118,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -36160,7 +36160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -36202,7 +36202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -36244,7 +36244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -36286,7 +36286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -36328,7 +36328,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -36370,7 +36370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -36412,12 +36412,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -36453,7 +36453,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -36489,7 +36489,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -36525,7 +36525,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -36561,7 +36561,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -36597,7 +36597,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -36633,7 +36633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -36669,7 +36669,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -36705,7 +36705,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -36741,7 +36741,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -36777,7 +36777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -36813,7 +36813,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -36849,7 +36849,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -36885,7 +36885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -36921,7 +36921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -36957,7 +36957,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -37006,11 +37006,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="F17" zoomScale="108" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="108" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -37026,7 +37026,7 @@
       <selection activeCell="X74" sqref="X74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -37041,11 +37041,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+    <sheetView zoomScale="60" workbookViewId="0">
       <selection activeCell="AJ60" sqref="AJ60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -37061,15 +37061,15 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="80">
+    <row r="1" spans="1:24" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -37129,7 +37129,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -37207,7 +37207,7 @@
         <v>0.85116285714285722</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -37285,7 +37285,7 @@
         <v>2.8037742857142862</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -37363,7 +37363,7 @@
         <v>2.7205300000000009E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -37441,7 +37441,7 @@
         <v>5.3517435714285709E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -37519,7 +37519,7 @@
         <v>5.0205578571428565E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -37597,7 +37597,7 @@
         <v>0.93302292857142866</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -37675,7 +37675,7 @@
         <v>0.72154742857142862</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -37720,51 +37720,51 @@
         <v>420279.86892522278</v>
       </c>
     </row>
-    <row r="24" spans="6:6">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F25" s="17">
-        <f>E2/F2</f>
-        <v>9.1477272727272716</v>
+        <f>D2/F2</f>
+        <v>12.926136363636363</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F26" s="17">
-        <f t="shared" ref="F26:F35" si="4">E3/F3</f>
-        <v>8.881465517241379</v>
+        <f t="shared" ref="F26:F31" si="4">D3/F3</f>
+        <v>6.9870689655172429</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F27" s="17">
         <f t="shared" si="4"/>
-        <v>1.0805729632945389</v>
+        <v>2.2247090420769919</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F28" s="17">
         <f t="shared" si="4"/>
-        <v>0.22480127186009541</v>
+        <v>2.2073131955484899</v>
       </c>
     </row>
-    <row r="29" spans="6:6">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F29" s="17">
         <f t="shared" si="4"/>
-        <v>0.46898928024502301</v>
+        <v>1.0017866258295047</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F30" s="17">
         <f t="shared" si="4"/>
-        <v>6.9853942832774614</v>
+        <v>7.0955590566104787</v>
       </c>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F31" s="17">
         <f t="shared" si="4"/>
-        <v>1.124437781109445</v>
+        <v>4.8883058470764604</v>
       </c>
     </row>
   </sheetData>
@@ -37781,14 +37781,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48">
+    <row r="1" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37832,7 +37832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -37879,7 +37879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -37926,7 +37926,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -37973,7 +37973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -38020,7 +38020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -38067,7 +38067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -38114,7 +38114,7 @@
         <v>33920</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -38176,13 +38176,13 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -38217,7 +38217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -38258,7 +38258,7 @@
         <v>9.2481328305929118</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -38299,7 +38299,7 @@
         <v>8.8457967152088148</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -38340,7 +38340,7 @@
         <v>14.940104403267581</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -38381,7 +38381,7 @@
         <v>6.8231258250680265</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -38422,7 +38422,7 @@
         <v>11.325399218485586</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -38463,7 +38463,7 @@
         <v>5.9358621367039852</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -38504,10 +38504,10 @@
         <v>6.9339743693278981</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -38537,7 +38537,7 @@
         <v>8.3239999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -38567,7 +38567,7 @@
         <v>0.72475000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>0.59789999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -38627,7 +38627,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -38657,7 +38657,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -38687,7 +38687,7 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -38717,7 +38717,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -38747,7 +38747,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -38777,7 +38777,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -38807,7 +38807,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -38837,7 +38837,7 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -38867,7 +38867,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -38897,7 +38897,7 @@
         <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -38927,7 +38927,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -38957,7 +38957,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -39001,14 +39001,14 @@
       <selection activeCell="Z13" sqref="Z13:AC40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -39035,7 +39035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -39072,7 +39072,7 @@
         <v>5.5995301263850479</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -39109,7 +39109,7 @@
         <v>5.0763031822075568</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -39146,7 +39146,7 @@
         <v>4.1442518429966126</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -39183,7 +39183,7 @@
         <v>3.3961983804378977</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -39220,7 +39220,7 @@
         <v>42.767914833389746</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -39257,7 +39257,7 @@
         <v>4.8611651834311216</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -39294,7 +39294,7 @@
         <v>3.5892272932021827</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>79</v>
       </c>
@@ -39331,7 +39331,7 @@
         <v>9.9192272631500238</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>44</v>
       </c>
@@ -39368,11 +39368,11 @@
         <v>14.506912781063331</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
@@ -39409,7 +39409,7 @@
         <v>5.667307790505693</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
@@ -39446,7 +39446,7 @@
         <v>5.8251159145823816</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>29</v>
       </c>
@@ -39483,7 +39483,7 @@
         <v>5.9511782417199592</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -39520,7 +39520,7 @@
         <v>6.0420280712821324</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -39557,7 +39557,7 @@
         <v>3.7932118924934084</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
@@ -39594,7 +39594,7 @@
         <v>3.2913889185945653</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
@@ -39631,7 +39631,7 @@
         <v>4.6756282875511408</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -39668,7 +39668,7 @@
         <v>5.0650479498359937</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
@@ -39705,7 +39705,7 @@
         <v>3.8827360991239686</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>36</v>
       </c>
@@ -39742,7 +39742,7 @@
         <v>3.9680878671946291</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
@@ -39779,7 +39779,7 @@
         <v>4.256900650687558</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>38</v>
       </c>
@@ -39816,7 +39816,7 @@
         <v>2.9374369766320316</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>39</v>
       </c>
@@ -39853,7 +39853,7 @@
         <v>6.2305374980180757</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>40</v>
       </c>
@@ -39890,7 +39890,7 @@
         <v>3.0290770651147834</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>41</v>
       </c>
@@ -39927,7 +39927,7 @@
         <v>2.8324673571139241</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>42</v>
       </c>
@@ -39978,12 +39978,12 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="48">
+    <row r="1" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -40009,7 +40009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -40041,7 +40041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -40073,7 +40073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -40105,7 +40105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -40137,7 +40137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -40169,7 +40169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -40201,7 +40201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -40233,11 +40233,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -40268,7 +40268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -40299,7 +40299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -40330,7 +40330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -40361,7 +40361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -40395,7 +40395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -40426,7 +40426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -40457,7 +40457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -40488,7 +40488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -40519,7 +40519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -40550,7 +40550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -40581,7 +40581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -40612,7 +40612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -40643,7 +40643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -40674,7 +40674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -40705,7 +40705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -40736,10 +40736,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>61</v>
       </c>
@@ -40766,7 +40766,7 @@
         <v>4.5393761249999995</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>62</v>
       </c>
@@ -40793,7 +40793,7 @@
         <v>5.0455825000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>63</v>
       </c>
@@ -40820,7 +40820,7 @@
         <v>5.5499839999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>64</v>
       </c>
@@ -40847,7 +40847,7 @@
         <v>5.5458631249999994</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>65</v>
       </c>
@@ -40874,7 +40874,7 @@
         <v>5.5499056250000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>66</v>
       </c>
@@ -40901,10 +40901,10 @@
         <v>6.053922</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H33" s="17"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -40931,7 +40931,7 @@
         <v>4.8980974999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -40958,7 +40958,7 @@
         <v>4.9787912499999996</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -40985,7 +40985,7 @@
         <v>5.0455350000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
@@ -41012,10 +41012,10 @@
         <v>4.66667875</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -41042,7 +41042,7 @@
         <v>0.82836999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>75</v>
       </c>
@@ -41069,7 +41069,7 @@
         <v>1.6594487499999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
@@ -41096,7 +41096,7 @@
         <v>3.3198737499999997</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -41123,7 +41123,7 @@
         <v>6.6420724999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>73</v>
       </c>
@@ -41162,15 +41162,15 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>57</v>
       </c>
@@ -41193,7 +41193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -41216,7 +41216,7 @@
         <v>2920.9470000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -41239,7 +41239,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -41262,7 +41262,7 @@
         <v>174.76599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32">
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>60</v>
       </c>
@@ -41279,7 +41279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -41296,7 +41296,7 @@
         <v>1882.4839999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -41313,7 +41313,7 @@
         <v>1.4510000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -41330,7 +41330,7 @@
         <v>110.43899999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
@@ -41350,7 +41350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
@@ -41370,7 +41370,7 @@
         <v>19782.670999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>56</v>
       </c>
@@ -41390,7 +41390,7 @@
         <v>98.623999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -41410,7 +41410,7 @@
         <v>109.44799999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>76</v>
       </c>
@@ -41424,7 +41424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -41446,18 +41446,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="17" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>57</v>
       </c>
@@ -41480,7 +41481,7 @@
         <v>66</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>57</v>
@@ -41504,7 +41505,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -41527,13 +41528,13 @@
         <v>4.5786499999999997</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
         <v>55</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
@@ -41541,7 +41542,7 @@
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -41585,7 +41586,7 @@
         <v>8.0759999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -41611,7 +41612,7 @@
         <v>58</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
@@ -41619,23 +41620,23 @@
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I5" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:21" ht="34">
+    <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>60</v>
       </c>
@@ -41672,7 +41673,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -41697,13 +41698,13 @@
         <v>55</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -41740,7 +41741,7 @@
         <v>1.3009E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -41765,20 +41766,20 @@
         <v>58</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:21" ht="34">
+    <row r="12" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
@@ -41821,7 +41822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
@@ -41844,14 +41845,14 @@
         <v>55</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>56</v>
       </c>
@@ -41889,7 +41890,7 @@
         <v>1.0858E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -41912,14 +41913,14 @@
         <v>58</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>76</v>
       </c>
@@ -41945,7 +41946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -41971,22 +41972,26 @@
         <v>3.28E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I27" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
+      <c r="R27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
-      <c r="P28" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G29" s="15" t="s">
         <v>57</v>
       </c>
@@ -42008,18 +42013,51 @@
       <c r="M29" s="15" t="s">
         <v>66</v>
       </c>
+      <c r="P29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
     </row>
-    <row r="31" spans="1:18" ht="85">
+    <row r="31" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
       <c r="G31" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H31" s="3">
         <f>B3/P3</f>
@@ -42045,16 +42083,81 @@
         <f t="shared" si="0"/>
         <v>121.01362060425954</v>
       </c>
+      <c r="P31" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" s="3">
+        <f>'Scalability CPT+'!B3/'Scalability subSeq'!P3</f>
+        <v>283.6747361887027</v>
+      </c>
+      <c r="R31" s="3">
+        <f>'Scalability CPT+'!C3/'Scalability subSeq'!Q3</f>
+        <v>145.41915751424997</v>
+      </c>
+      <c r="S31" s="3">
+        <f>'Scalability CPT+'!D3/'Scalability subSeq'!R3</f>
+        <v>108.67000884694781</v>
+      </c>
+      <c r="T31" s="3">
+        <f>'Scalability CPT+'!E3/'Scalability subSeq'!S3</f>
+        <v>80.286076825470062</v>
+      </c>
+      <c r="U31" s="3">
+        <f>'Scalability CPT+'!F3/'Scalability subSeq'!T3</f>
+        <v>59.672859450726982</v>
+      </c>
+      <c r="V31" s="3">
+        <f>'Scalability CPT+'!G3/'Scalability subSeq'!U3</f>
+        <v>79.370975730559692</v>
+      </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="17">
+        <f>'Execution Time per Query (μs)'!D2/'Execution Time per Query (μs)'!F2</f>
+        <v>12.926136363636363</v>
+      </c>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
     </row>
-    <row r="35" spans="7:12" ht="34">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="17">
+        <f>'Execution Time per Query (μs)'!D3/'Execution Time per Query (μs)'!F3</f>
+        <v>6.9870689655172429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="17">
+        <f>'Execution Time per Query (μs)'!D4/'Execution Time per Query (μs)'!F4</f>
+        <v>2.2247090420769919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="17">
+        <f>'Execution Time per Query (μs)'!D5/'Execution Time per Query (μs)'!F5</f>
+        <v>2.2073131955484899</v>
+      </c>
       <c r="G35" s="15" t="s">
         <v>60</v>
       </c>
@@ -42070,16 +42173,49 @@
       <c r="K35" s="18" t="s">
         <v>67</v>
       </c>
+      <c r="P35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R35" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="S35" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T35" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="36" spans="7:12">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="17">
+        <f>'Execution Time per Query (μs)'!D6/'Execution Time per Query (μs)'!F6</f>
+        <v>1.0017866258295047</v>
+      </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
     </row>
-    <row r="37" spans="7:12" ht="85">
+    <row r="37" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="17">
+        <f>'Execution Time per Query (μs)'!D7/'Execution Time per Query (μs)'!F7</f>
+        <v>7.0955590566104787</v>
+      </c>
       <c r="G37" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H37" s="3">
         <f>B9/P9</f>
@@ -42097,14 +42233,44 @@
         <f t="shared" si="1"/>
         <v>5.5733722807287265</v>
       </c>
+      <c r="P37" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q37" s="3">
+        <f>'Scalability CPT+'!B9/'Scalability subSeq'!P9</f>
+        <v>284.6199175014732</v>
+      </c>
+      <c r="R37" s="3">
+        <f>'Scalability CPT+'!C9/'Scalability subSeq'!Q9</f>
+        <v>213.54733405875953</v>
+      </c>
+      <c r="S37" s="3">
+        <f>'Scalability CPT+'!D9/'Scalability subSeq'!R9</f>
+        <v>229.08070638719258</v>
+      </c>
+      <c r="T37" s="3">
+        <f>'Scalability CPT+'!E9/'Scalability subSeq'!S9</f>
+        <v>111.53816588515643</v>
+      </c>
     </row>
-    <row r="38" spans="7:12">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="17">
+        <f>'Execution Time per Query (μs)'!D8/'Execution Time per Query (μs)'!F8</f>
+        <v>4.8883058470764604</v>
+      </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
     </row>
-    <row r="40" spans="7:12" ht="34">
+    <row r="40" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="G40" s="16" t="s">
         <v>59</v>
       </c>
@@ -42123,18 +42289,42 @@
       <c r="L40" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="P40" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="R40" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="S40" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="T40" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="U40" s="18" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="41" spans="7:12">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G41" s="11"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
     </row>
-    <row r="42" spans="7:12" ht="85">
+    <row r="42" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="G42" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H42" s="21">
         <f>B14/P14</f>
@@ -42156,16 +42346,45 @@
         <f t="shared" si="2"/>
         <v>1321.1917480198931</v>
       </c>
+      <c r="P42" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q42" s="3">
+        <f>'Scalability CPT+'!B14/'Scalability subSeq'!P14</f>
+        <v>7055.7717250324258</v>
+      </c>
+      <c r="R42" s="3">
+        <f>'Scalability CPT+'!C14/'Scalability subSeq'!Q14</f>
+        <v>4301.8867924528304</v>
+      </c>
+      <c r="S42" s="3">
+        <f>'Scalability CPT+'!D14/'Scalability subSeq'!R14</f>
+        <v>6792.2665569724395</v>
+      </c>
+      <c r="T42" s="3">
+        <f>'Scalability CPT+'!E14/'Scalability subSeq'!S14</f>
+        <v>6130.9813463098135</v>
+      </c>
+      <c r="U42" s="3">
+        <f>'Scalability CPT+'!F14/'Scalability subSeq'!T14</f>
+        <v>9083.0723890219197</v>
+      </c>
     </row>
-    <row r="43" spans="7:12">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G43" s="11"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
     </row>
-    <row r="46" spans="7:12">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G46" s="16" t="s">
         <v>76</v>
       </c>
@@ -42178,10 +42397,22 @@
       <c r="J46" s="3">
         <v>12</v>
       </c>
+      <c r="P46" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3">
+        <v>6</v>
+      </c>
+      <c r="S46" s="3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="47" spans="7:12" ht="85">
+    <row r="47" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="G47" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H47" s="3">
         <f>B19/P19</f>
@@ -42195,11 +42426,33 @@
         <f t="shared" si="3"/>
         <v>3307.1646341463415</v>
       </c>
+      <c r="P47" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q47" s="3">
+        <f>'Scalability CPT+'!B19/'Scalability subSeq'!P19</f>
+        <v>1053.968253968254</v>
+      </c>
+      <c r="R47" s="3">
+        <f>'Scalability CPT+'!C19/'Scalability subSeq'!Q19</f>
+        <v>496.81528662420385</v>
+      </c>
+      <c r="S47" s="3">
+        <f>'Scalability CPT+'!D19/'Scalability subSeq'!R19</f>
+        <v>3835.3658536585367</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="21">
     <mergeCell ref="H41:L41"/>
     <mergeCell ref="H43:L43"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="Q43:U43"/>
     <mergeCell ref="I5:M12"/>
     <mergeCell ref="I27:M27"/>
     <mergeCell ref="H30:M30"/>
@@ -42229,7 +42482,7 @@
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
